--- a/solutions/dell/ai/precision-ai-workstation/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/ai/precision-ai-workstation/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1640,7 +1640,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1730,7 +1730,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1775,7 +1775,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -1953,171 +1953,36 @@
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Dell ProDeploy Services</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>Rack installation OS setup ML framework installation</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G18" s="50" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50" t="n">
-        <v>20000</v>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>One-time professional deployment services</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Data Scientist Training</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>CUDA optimization distributed training GPU profiling best practices</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Workshop</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G19" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>2-day hands-on training workshop</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>Infrastructure Design</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>Solution architecture design and capacity planning consultation</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>250</v>
-      </c>
-      <c r="G20" s="50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H20" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>Upfront architecture and design services</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="51" t="inlineStr">
+      <c r="A18" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B21" s="52" t="n"/>
-      <c r="C21" s="52" t="n"/>
-      <c r="D21" s="52" t="n"/>
-      <c r="E21" s="52" t="n"/>
-      <c r="F21" s="52" t="n"/>
-      <c r="G21" s="53">
-        <f>SUM(G3:G20)</f>
-        <v/>
-      </c>
-      <c r="H21" s="53">
-        <f>SUM(H3:H20)</f>
-        <v/>
-      </c>
-      <c r="I21" s="53">
-        <f>SUM(I3:I20)</f>
-        <v/>
-      </c>
-      <c r="J21" s="53">
-        <f>SUM(J3:J20)</f>
-        <v/>
-      </c>
-      <c r="K21" s="52" t="n"/>
+      <c r="B18" s="52" t="n"/>
+      <c r="C18" s="52" t="n"/>
+      <c r="D18" s="52" t="n"/>
+      <c r="E18" s="52" t="n"/>
+      <c r="F18" s="52" t="n"/>
+      <c r="G18" s="53">
+        <f>SUM(G3:G17)</f>
+        <v/>
+      </c>
+      <c r="H18" s="53">
+        <f>SUM(H3:H17)</f>
+        <v/>
+      </c>
+      <c r="I18" s="53">
+        <f>SUM(I3:I17)</f>
+        <v/>
+      </c>
+      <c r="J18" s="53">
+        <f>SUM(J3:J17)</f>
+        <v/>
+      </c>
+      <c r="K18" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K21"/>
+  <autoFilter ref="A2:K18"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2198,7 +2063,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -2270,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2366,7 +2231,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2426,69 +2291,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
